--- a/backend/model_data/TrainingData_en.xlsx
+++ b/backend/model_data/TrainingData_en.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/borisjoens/Dropbox/Kommentare/SmallData/backend/classification/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/borisjoens/Dropbox/Kommentare/SmallData/backend/model_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -106,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2296" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2408" uniqueCount="528">
   <si>
     <t>User</t>
   </si>
@@ -1648,6 +1648,60 @@
   </si>
   <si>
     <t>conspiracy</t>
+  </si>
+  <si>
+    <t>Let's stop with this load of codswallop, shall we?</t>
+  </si>
+  <si>
+    <t>https://www.theguardian.com/football/2019/aug/31/burnley-liverpool-premier-league-match-report#comment-132561050</t>
+  </si>
+  <si>
+    <t>football</t>
+  </si>
+  <si>
+    <t>olaftheAwesome</t>
+  </si>
+  <si>
+    <t>PumpActionPanda</t>
+  </si>
+  <si>
+    <t>Yeah, he might have gone slightly too far today, but that attitude is what makes him the player he is</t>
+  </si>
+  <si>
+    <t>I could watch him run around the pitch on his own and still love it</t>
+  </si>
+  <si>
+    <t>On Sadio; what else can be said</t>
+  </si>
+  <si>
+    <t>He's wonderful, and the fire he showed after not getting passed to shows his dedication and passion</t>
+  </si>
+  <si>
+    <t>What a guy</t>
+  </si>
+  <si>
+    <t>On Mo; all great forwards are selfish</t>
+  </si>
+  <si>
+    <t>On Bobby; I don't think watching a player play has ever given me so much joy</t>
+  </si>
+  <si>
+    <t>proposing</t>
+  </si>
+  <si>
+    <t>request</t>
+  </si>
+  <si>
+    <t>this would be good</t>
+  </si>
+  <si>
+    <t>defending</t>
+  </si>
+  <si>
+    <t>others are like this</t>
+  </si>
+  <si>
+    <t>0.95</t>
   </si>
 </sst>
 </file>
@@ -2042,12 +2096,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:P175"/>
+  <dimension ref="B1:P183"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="107" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A160" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="107" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A159" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="M175" sqref="M175"/>
+      <selection pane="bottomLeft" activeCell="G183" sqref="G183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9308,6 +9362,358 @@
         <v>474</v>
       </c>
     </row>
+    <row r="176" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B176" t="s">
+        <v>301</v>
+      </c>
+      <c r="C176" t="s">
+        <v>513</v>
+      </c>
+      <c r="D176" t="s">
+        <v>512</v>
+      </c>
+      <c r="E176" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F176" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="G176" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H176" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="I176" s="5" t="s">
+        <v>522</v>
+      </c>
+      <c r="J176" s="5" t="s">
+        <v>523</v>
+      </c>
+      <c r="K176" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L176" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="M176" t="s">
+        <v>510</v>
+      </c>
+      <c r="N176" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="O176" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="177" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B177" t="s">
+        <v>301</v>
+      </c>
+      <c r="C177" t="s">
+        <v>514</v>
+      </c>
+      <c r="D177" t="s">
+        <v>512</v>
+      </c>
+      <c r="E177" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F177" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="G177" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="H177" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I177" s="5" t="s">
+        <v>525</v>
+      </c>
+      <c r="J177" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="K177" s="5" t="s">
+        <v>500</v>
+      </c>
+      <c r="L177" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="M177" t="s">
+        <v>520</v>
+      </c>
+      <c r="N177" s="7" t="s">
+        <v>526</v>
+      </c>
+      <c r="O177" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="178" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B178" t="s">
+        <v>301</v>
+      </c>
+      <c r="C178" t="s">
+        <v>514</v>
+      </c>
+      <c r="D178" t="s">
+        <v>512</v>
+      </c>
+      <c r="E178" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F178" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="G178" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="H178" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I178" s="5" t="s">
+        <v>525</v>
+      </c>
+      <c r="J178" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="K178" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="L178" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="M178" t="s">
+        <v>515</v>
+      </c>
+      <c r="N178" s="7" t="s">
+        <v>526</v>
+      </c>
+      <c r="O178" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="179" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B179" t="s">
+        <v>301</v>
+      </c>
+      <c r="C179" t="s">
+        <v>514</v>
+      </c>
+      <c r="D179" t="s">
+        <v>512</v>
+      </c>
+      <c r="E179" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F179" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="G179" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="H179" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I179" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="J179" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="K179" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="L179" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="M179" t="s">
+        <v>521</v>
+      </c>
+      <c r="N179" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="O179" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="180" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B180" t="s">
+        <v>301</v>
+      </c>
+      <c r="C180" t="s">
+        <v>514</v>
+      </c>
+      <c r="D180" t="s">
+        <v>512</v>
+      </c>
+      <c r="E180" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F180" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="G180" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="H180" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I180" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="J180" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="K180" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="L180" s="5" t="s">
+        <v>527</v>
+      </c>
+      <c r="M180" t="s">
+        <v>516</v>
+      </c>
+      <c r="N180" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="O180" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="181" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B181" t="s">
+        <v>301</v>
+      </c>
+      <c r="C181" t="s">
+        <v>514</v>
+      </c>
+      <c r="D181" t="s">
+        <v>512</v>
+      </c>
+      <c r="E181" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="F181" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="G181" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="H181" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I181" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="J181" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="K181" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="L181" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="M181" t="s">
+        <v>517</v>
+      </c>
+      <c r="N181" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="O181" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="182" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B182" t="s">
+        <v>301</v>
+      </c>
+      <c r="C182" t="s">
+        <v>514</v>
+      </c>
+      <c r="D182" t="s">
+        <v>512</v>
+      </c>
+      <c r="E182" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F182" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="G182" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="H182" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I182" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="J182" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="K182" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L182" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="M182" t="s">
+        <v>518</v>
+      </c>
+      <c r="N182" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="O182" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="183" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B183" t="s">
+        <v>301</v>
+      </c>
+      <c r="C183" t="s">
+        <v>514</v>
+      </c>
+      <c r="D183" t="s">
+        <v>512</v>
+      </c>
+      <c r="E183" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F183" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G183" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="H183" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I183" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="J183" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="K183" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="L183" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="M183" t="s">
+        <v>519</v>
+      </c>
+      <c r="N183" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="O183" t="s">
+        <v>511</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="M122" r:id="rId1"/>
